--- a/취업정보뽀개기RPA/DWAVJobKorea/Data/Config.xlsx
+++ b/취업정보뽀개기RPA/DWAVJobKorea/Data/Config.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fd4dfd64622e41b/바탕 화면/새 폴더/DWAVJobKorea/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA_20210928\RPA project\DWAVRPA\취업정보뽀개기RPA\DWAVJobKorea\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{C5A77E9B-78CF-424B-8F32-3F32718836DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BD581AE-1968-46CC-B127-9ED2CEF3DCE9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="2" r:id="rId1"/>
@@ -662,10 +661,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DWAV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>채널의 이름을 입력해주세요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -876,6 +871,57 @@
         <family val="2"/>
       </rPr>
       <t>}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>채용공고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>평점</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -883,8 +929,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1358,21 +1404,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="20.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="38" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1384,7 +1430,7 @@
       </c>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -1396,7 +1442,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1408,7 +1454,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1420,7 +1466,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="16.5">
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -1432,7 +1478,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -1444,7 +1490,7 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" ht="16.5">
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>38</v>
       </c>
@@ -1456,13 +1502,13 @@
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1476,14 +1522,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58" style="1" bestFit="1" customWidth="1"/>
@@ -1491,7 +1537,7 @@
     <col min="4" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.45" customHeight="1">
+    <row r="1" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1502,7 +1548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5">
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -1513,7 +1559,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -1524,7 +1570,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -1535,7 +1581,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5">
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1546,7 +1592,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5">
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>37</v>
       </c>
@@ -1555,73 +1601,73 @@
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{C9B12511-2A61-46F8-9413-95FFC1CFEBB7}"/>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -1629,14 +1675,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="39" style="1" customWidth="1"/>
@@ -1644,7 +1690,7 @@
     <col min="4" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1662,7 +1708,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -1680,15 +1726,15 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="16.5">
+    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -1698,7 +1744,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1710,7 +1756,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1722,7 +1768,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1731,7 +1777,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1743,7 +1789,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1755,7 +1801,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="8"/>
@@ -1767,12 +1813,12 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1781,7 +1827,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1793,7 +1839,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1805,7 +1851,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1817,7 +1863,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1829,7 +1875,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1841,7 +1887,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1853,7 +1899,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1865,7 +1911,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1877,7 +1923,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1889,7 +1935,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1901,7 +1947,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1913,7 +1959,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1925,7 +1971,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1937,7 +1983,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1949,7 +1995,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1961,7 +2007,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1973,7 +2019,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1993,14 +2039,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="50.75" style="1" customWidth="1"/>
@@ -2008,7 +2054,7 @@
     <col min="4" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -2021,7 +2067,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1">
+    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -2034,7 +2080,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="49.5">
+    <row r="3" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -2047,7 +2093,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="45">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -2060,86 +2106,86 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75">
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="6"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>

--- a/취업정보뽀개기RPA/DWAVJobKorea/Data/Config.xlsx
+++ b/취업정보뽀개기RPA/DWAVJobKorea/Data/Config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA_20210928\RPA project\DWAVRPA\취업정보뽀개기RPA\DWAVJobKorea\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\취업정보뽀개기RPA\DWAVJobKorea\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="2" r:id="rId1"/>
@@ -1407,7 +1407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1678,8 +1678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2043,7 +2043,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
